--- a/Right/gerber/stm32split-top-pos.xlsx
+++ b/Right/gerber/stm32split-top-pos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\splitkb\splitkb\splitkb\Right\gerber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/hacking/tastatur/splitkb/Right/gerber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EADCBCA-BC5A-4776-AC1A-B9D7413F1022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEBE9C5E-F3B1-BB44-91B1-4437F96375F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="stm32split-top-pos" sheetId="1" r:id="rId1"/>
@@ -463,14 +463,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -508,28 +508,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -537,7 +537,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -545,14 +545,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -560,14 +560,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -575,7 +575,7 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -583,14 +583,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1301,9 +1301,9 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>140</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>111</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>120</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>135</v>
       </c>
@@ -2546,6 +2546,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>